--- a/ofc/estimates/estimates/gravel swornim chowk to sanagaun/suyal chowk chanaute futsal baato.xlsx
+++ b/ofc/estimates/estimates/gravel swornim chowk to sanagaun/suyal chowk chanaute futsal baato.xlsx
@@ -4,21 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="WCR" sheetId="7" r:id="rId2"/>
+    <sheet name="Estimate (2)" sheetId="8" r:id="rId3"/>
+    <sheet name="Estimate (3)" sheetId="9" r:id="rId4"/>
+    <sheet name="Estimate (4)" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
+    <definedName name="description_124" localSheetId="2">#REF!</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
+    <definedName name="description_124" localSheetId="4">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
     <definedName name="description_248">[1]Abstract!$B$23</definedName>
@@ -35,12 +41,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="63">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -220,15 +226,24 @@
   </si>
   <si>
     <t>Project:-Sanagaun pariyaar tole bendol sadak</t>
+  </si>
+  <si>
+    <t>-for lab test</t>
+  </si>
+  <si>
+    <t>-for unforseen works</t>
+  </si>
+  <si>
+    <t>VAT 13%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -403,21 +418,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,7 +448,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -468,7 +483,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,7 +512,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,7 +526,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -527,7 +542,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -543,7 +558,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -553,77 +568,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,6 +592,79 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1283,133 +1307,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-    </row>
-    <row r="2" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1444,7 +1468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>1</v>
       </c>
@@ -1461,7 +1485,7 @@
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
@@ -1488,26 +1512,26 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="95">
-        <v>1</v>
-      </c>
-      <c r="D11" s="96">
+      <c r="C11" s="73">
+        <v>1</v>
+      </c>
+      <c r="D11" s="74">
         <f>D32+D33</f>
         <v>510</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="74">
         <f>15/3.281</f>
         <v>4.5717768972874122</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="74">
         <v>0.15</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="74">
         <f>PRODUCT(C11:F11)</f>
         <v>349.740932642487</v>
       </c>
@@ -1516,7 +1540,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
         <v>20</v>
@@ -1541,7 +1565,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>22</v>
@@ -1559,7 +1583,7 @@
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -1572,7 +1596,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" ht="82.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>2</v>
       </c>
@@ -1589,7 +1613,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="str">
         <f>B10</f>
@@ -1619,7 +1643,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="10" t="s">
         <v>20</v>
@@ -1644,7 +1668,7 @@
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
@@ -1662,7 +1686,7 @@
       </c>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -1675,7 +1699,7 @@
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>2</v>
       </c>
@@ -1700,7 +1724,7 @@
       <c r="J20" s="26"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="10" t="str">
         <f>B16</f>
@@ -1731,7 +1755,7 @@
       <c r="J21" s="26"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="31"/>
       <c r="C22" s="22">
@@ -1759,7 +1783,7 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -1784,7 +1808,7 @@
       </c>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="10" t="s">
         <v>22</v>
@@ -1802,7 +1826,7 @@
       </c>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -1815,7 +1839,7 @@
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="1:11" s="17" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>3</v>
       </c>
@@ -1832,7 +1856,7 @@
       <c r="J26" s="26"/>
       <c r="K26" s="30"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="33" t="str">
         <f>B17</f>
@@ -1862,7 +1886,7 @@
       <c r="J27" s="26"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="10" t="s">
         <v>20</v>
@@ -1887,7 +1911,7 @@
       </c>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="10" t="s">
         <v>22</v>
@@ -1905,7 +1929,7 @@
       </c>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="10"/>
       <c r="C30" s="22"/>
@@ -1918,119 +1942,119 @@
       <c r="J30" s="26"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>4</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="87">
-        <v>1</v>
-      </c>
-      <c r="D32" s="88">
+      <c r="C32" s="65">
+        <v>1</v>
+      </c>
+      <c r="D32" s="66">
         <v>130</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="66">
         <f>15/3.281</f>
         <v>4.5717768972874122</v>
       </c>
-      <c r="F32" s="88">
+      <c r="F32" s="66">
         <v>0.15</v>
       </c>
-      <c r="G32" s="91">
+      <c r="G32" s="69">
         <f>PRODUCT(C32:F32)</f>
         <v>89.149649497104534</v>
       </c>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="87">
-        <v>1</v>
-      </c>
-      <c r="D33" s="88">
+      <c r="B33" s="68"/>
+      <c r="C33" s="65">
+        <v>1</v>
+      </c>
+      <c r="D33" s="66">
         <v>380</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="66">
         <f>15/3.281</f>
         <v>4.5717768972874122</v>
       </c>
-      <c r="F33" s="88">
+      <c r="F33" s="66">
         <v>0.15</v>
       </c>
-      <c r="G33" s="91">
+      <c r="G33" s="69">
         <f>PRODUCT(C33:F33)</f>
         <v>260.59128314538248</v>
       </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="92">
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="70">
         <f>SUM(G32:G33)</f>
         <v>349.740932642487</v>
       </c>
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="92">
+      <c r="I34" s="70">
         <v>2978.61</v>
       </c>
-      <c r="J34" s="93">
+      <c r="J34" s="71">
         <f>G34*I34</f>
         <v>1041741.8393782382</v>
       </c>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="89">
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="67">
         <f>0.13*G34*((831978.7+48114)/300)</f>
         <v>133381.92474093262</v>
       </c>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="10"/>
       <c r="C36" s="22"/>
@@ -2043,7 +2067,7 @@
       <c r="J36" s="26"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>5</v>
       </c>
@@ -2072,7 +2096,7 @@
       </c>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="7"/>
       <c r="C38" s="11"/>
@@ -2085,7 +2109,7 @@
       <c r="J38" s="34"/>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>6</v>
       </c>
@@ -2114,7 +2138,7 @@
       </c>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="33"/>
       <c r="C40" s="11"/>
@@ -2127,7 +2151,7 @@
       <c r="J40" s="16"/>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="44" t="s">
         <v>39</v>
@@ -2145,16 +2169,16 @@
       </c>
       <c r="K41" s="18"/>
     </row>
-    <row r="43" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="64">
+      <c r="C43" s="81">
         <f>J41</f>
         <v>2507938.5961947353</v>
       </c>
-      <c r="D43" s="64"/>
+      <c r="D43" s="81"/>
       <c r="E43" s="20">
         <v>100</v>
       </c>
@@ -2165,15 +2189,15 @@
       <c r="J43" s="39"/>
       <c r="K43" s="40"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="84">
         <v>2200000</v>
       </c>
-      <c r="D44" s="67"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="20"/>
       <c r="F44" s="42"/>
       <c r="G44" s="43"/>
@@ -2182,16 +2206,16 @@
       <c r="J44" s="43"/>
       <c r="K44" s="42"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="84">
         <f>C44-C47-C48</f>
         <v>2090000</v>
       </c>
-      <c r="D45" s="67"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f>C45/C43*100</f>
         <v>83.335373647948614</v>
@@ -2203,16 +2227,16 @@
       <c r="J45" s="43"/>
       <c r="K45" s="42"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="64">
+      <c r="C46" s="81">
         <f>C43-C45</f>
         <v>417938.59619473526</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="20">
         <f>100-E45</f>
         <v>16.664626352051386</v>
@@ -2224,16 +2248,16 @@
       <c r="J46" s="43"/>
       <c r="K46" s="42"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="64">
+      <c r="C47" s="81">
         <f>C44*0.03</f>
         <v>66000</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="81"/>
       <c r="E47" s="20">
         <v>3</v>
       </c>
@@ -2244,16 +2268,16 @@
       <c r="J47" s="43"/>
       <c r="K47" s="42"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="81">
         <f>C44*0.02</f>
         <v>44000</v>
       </c>
-      <c r="D48" s="64"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="20">
         <v>2</v>
       </c>
@@ -2266,13 +2290,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="A7:F7"/>
@@ -2281,6 +2298,13 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -2295,107 +2319,107 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-    </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="78" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="48"/>
-      <c r="C6" s="74">
+      <c r="C6" s="92">
         <f>F29</f>
         <v>1332814.8320755644</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="49"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -2403,90 +2427,90 @@
         <v>42</v>
       </c>
       <c r="I6" s="48"/>
-      <c r="J6" s="74" t="e">
+      <c r="J6" s="92" t="e">
         <f>I29</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="I7" s="80" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="I7" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="str">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="str">
         <f>Estimate!A6</f>
         <v>Project:-Sanagaun pariyaar tole bendol sadak</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="I8" s="81" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="I8" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="str">
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="I9" s="81" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="I9" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="84" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="85" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="51" t="s">
         <v>51</v>
       </c>
@@ -2505,10 +2529,10 @@
       <c r="I12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="84"/>
-      <c r="K12" s="83"/>
-    </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="J12" s="86"/>
+      <c r="K12" s="85"/>
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <f>Estimate!A9</f>
         <v>1</v>
@@ -2551,7 +2575,7 @@
       </c>
       <c r="K13" s="54"/>
     </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="60" t="str">
         <f>Estimate!B13</f>
@@ -2576,7 +2600,7 @@
       </c>
       <c r="K14" s="54"/>
     </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="30"/>
       <c r="C15" s="52"/>
@@ -2589,7 +2613,7 @@
       <c r="J15" s="53"/>
       <c r="K15" s="54"/>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <f>Estimate!A15</f>
         <v>2</v>
@@ -2632,7 +2656,7 @@
       </c>
       <c r="K16" s="54"/>
     </row>
-    <row r="17" spans="1:13" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="60" t="str">
         <f>Estimate!B18</f>
@@ -2657,7 +2681,7 @@
       </c>
       <c r="K17" s="54"/>
     </row>
-    <row r="18" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="30"/>
       <c r="C18" s="52"/>
@@ -2670,7 +2694,7 @@
       <c r="J18" s="53"/>
       <c r="K18" s="54"/>
     </row>
-    <row r="19" spans="1:13" s="17" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
         <f>Estimate!A20</f>
         <v>2</v>
@@ -2713,7 +2737,7 @@
       </c>
       <c r="K19" s="54"/>
     </row>
-    <row r="20" spans="1:13" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="60" t="str">
         <f>Estimate!B24</f>
@@ -2738,7 +2762,7 @@
       </c>
       <c r="K20" s="54"/>
     </row>
-    <row r="21" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="30"/>
       <c r="C21" s="52"/>
@@ -2751,7 +2775,7 @@
       <c r="J21" s="53"/>
       <c r="K21" s="54"/>
     </row>
-    <row r="22" spans="1:13" s="17" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="17" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
         <f>Estimate!A26</f>
         <v>3</v>
@@ -2794,7 +2818,7 @@
       </c>
       <c r="K22" s="54"/>
     </row>
-    <row r="23" spans="1:13" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="60" t="str">
         <f>Estimate!B29</f>
@@ -2819,7 +2843,7 @@
       </c>
       <c r="K23" s="54"/>
     </row>
-    <row r="24" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="30"/>
       <c r="C24" s="52"/>
@@ -2833,7 +2857,7 @@
       <c r="K24" s="54"/>
       <c r="M24" s="63"/>
     </row>
-    <row r="25" spans="1:13" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <f>Estimate!A37</f>
         <v>5</v>
@@ -2876,7 +2900,7 @@
       </c>
       <c r="K25" s="54"/>
     </row>
-    <row r="26" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="30"/>
       <c r="C26" s="52"/>
@@ -2889,7 +2913,7 @@
       <c r="J26" s="53"/>
       <c r="K26" s="54"/>
     </row>
-    <row r="27" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="62">
         <f>Estimate!A39</f>
         <v>6</v>
@@ -2932,7 +2956,7 @@
       </c>
       <c r="K27" s="54"/>
     </row>
-    <row r="28" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="52"/>
@@ -2945,7 +2969,7 @@
       <c r="J28" s="53"/>
       <c r="K28" s="54"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="57" t="s">
         <v>52</v>
@@ -2971,6 +2995,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -2978,19 +3015,6 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3002,4 +3026,1831 @@
 </oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="73">
+        <v>1</v>
+      </c>
+      <c r="D10" s="74">
+        <f>D15+D16</f>
+        <v>510</v>
+      </c>
+      <c r="E10" s="74">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F10" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="74">
+        <f>PRODUCT(C10:F10)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14">
+        <f>SUM(G10:G10)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14">
+        <v>64.63</v>
+      </c>
+      <c r="J11" s="16">
+        <f>G11*I11</f>
+        <v>22603.756476683931</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16">
+        <f>0.13*G11*19284/360</f>
+        <v>2435.4792746113985</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>2</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="65">
+        <v>1</v>
+      </c>
+      <c r="D15" s="66">
+        <v>130</v>
+      </c>
+      <c r="E15" s="66">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F15" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="69">
+        <f>PRODUCT(C15:F15)</f>
+        <v>89.149649497104534</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="65">
+        <v>1</v>
+      </c>
+      <c r="D16" s="66">
+        <v>380</v>
+      </c>
+      <c r="E16" s="66">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F16" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="G16" s="69">
+        <f>PRODUCT(C16:F16)</f>
+        <v>260.59128314538248</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="70">
+        <f>SUM(G15:G16)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="70">
+        <v>2978.61</v>
+      </c>
+      <c r="J17" s="71">
+        <f>G17*I17</f>
+        <v>1041741.8393782382</v>
+      </c>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67">
+        <f>0.13*G17*((831978.7+48114)/300)</f>
+        <v>133381.92474093262</v>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="69">
+        <f>PRODUCT(C21:F21)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14">
+        <v>50000</v>
+      </c>
+      <c r="J21" s="34"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="69">
+        <f>PRODUCT(C22:F22)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14">
+        <v>25000</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="70">
+        <v>1</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="70">
+        <f>SUM(I21:I22)</f>
+        <v>75000</v>
+      </c>
+      <c r="J23" s="71">
+        <f>G23*I23</f>
+        <v>75000</v>
+      </c>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="34">
+        <f t="shared" ref="G25" si="0">PRODUCT(C25:F25)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="34">
+        <f>G25*I25</f>
+        <v>1000</v>
+      </c>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16">
+        <f>SUM(J11:J25)</f>
+        <v>1276162.9998704661</v>
+      </c>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="29" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="81">
+        <f>J27</f>
+        <v>1276162.9998704661</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="20">
+        <v>100</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="84">
+        <v>1140000</v>
+      </c>
+      <c r="D30" s="84"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="84">
+        <f>C30-C33-C34</f>
+        <v>1083000</v>
+      </c>
+      <c r="D31" s="84"/>
+      <c r="E31" s="20">
+        <f>C31/C29*100</f>
+        <v>84.863767411367306</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="81">
+        <f>C29-C31</f>
+        <v>193162.99987046607</v>
+      </c>
+      <c r="D32" s="81"/>
+      <c r="E32" s="20">
+        <f>100-E31</f>
+        <v>15.136232588632694</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="81">
+        <f>C30*0.03</f>
+        <v>34200</v>
+      </c>
+      <c r="D33" s="81"/>
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="81">
+        <f>C30*0.02</f>
+        <v>22800</v>
+      </c>
+      <c r="D34" s="81"/>
+      <c r="E34" s="20">
+        <v>2</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="73">
+        <v>1</v>
+      </c>
+      <c r="D10" s="74">
+        <f>D14+D15</f>
+        <v>510</v>
+      </c>
+      <c r="E10" s="74">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F10" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="74">
+        <f>PRODUCT(C10:F10)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14">
+        <f>SUM(G10:G10)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14">
+        <f>64.63*1.15</f>
+        <v>74.324499999999986</v>
+      </c>
+      <c r="J11" s="16">
+        <f>G11*I11</f>
+        <v>25994.319948186519</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>2</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="65">
+        <v>1</v>
+      </c>
+      <c r="D14" s="66">
+        <v>130</v>
+      </c>
+      <c r="E14" s="66">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="69">
+        <f>PRODUCT(C14:F14)</f>
+        <v>89.149649497104534</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="65">
+        <v>1</v>
+      </c>
+      <c r="D15" s="66">
+        <v>380</v>
+      </c>
+      <c r="E15" s="66">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F15" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="69">
+        <f>PRODUCT(C15:F15)</f>
+        <v>260.59128314538248</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="70">
+        <f>SUM(G14:G15)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="70">
+        <f>2978.61*1.15</f>
+        <v>3425.4014999999999</v>
+      </c>
+      <c r="J16" s="71">
+        <f>G16*I16</f>
+        <v>1198003.115284974</v>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="69">
+        <f>PRODUCT(C19:F19)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14">
+        <v>50000</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="69">
+        <f>PRODUCT(C20:F20)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14">
+        <v>25000</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="70">
+        <v>1</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="70">
+        <f>SUM(I19:I20)</f>
+        <v>75000</v>
+      </c>
+      <c r="J21" s="71">
+        <f>G21*I21</f>
+        <v>75000</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="34">
+        <f t="shared" ref="G23" si="0">PRODUCT(C23:F23)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="34">
+        <f>G23*I23</f>
+        <v>1000</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16">
+        <f>SUM(J11:J23)</f>
+        <v>1299997.4352331606</v>
+      </c>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="27" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="81">
+        <f>J25</f>
+        <v>1299997.4352331606</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="73">
+        <v>1</v>
+      </c>
+      <c r="D10" s="74">
+        <f>D14+D15</f>
+        <v>510</v>
+      </c>
+      <c r="E10" s="74">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F10" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="74">
+        <f>PRODUCT(C10:F10)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14">
+        <f>SUM(G10:G10)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14">
+        <f>64.63*1.15</f>
+        <v>74.324499999999986</v>
+      </c>
+      <c r="J11" s="16">
+        <f>G11*I11</f>
+        <v>25994.319948186519</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>2</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="65">
+        <v>1</v>
+      </c>
+      <c r="D14" s="66">
+        <v>130</v>
+      </c>
+      <c r="E14" s="66">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="69">
+        <f>PRODUCT(C14:F14)</f>
+        <v>89.149649497104534</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="65">
+        <v>1</v>
+      </c>
+      <c r="D15" s="66">
+        <v>380</v>
+      </c>
+      <c r="E15" s="66">
+        <f>15/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="F15" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="69">
+        <f>PRODUCT(C15:F15)</f>
+        <v>260.59128314538248</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="70">
+        <f>SUM(G14:G15)</f>
+        <v>349.740932642487</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="70">
+        <f>2978.61*1.15</f>
+        <v>3425.4014999999999</v>
+      </c>
+      <c r="J16" s="71">
+        <f>G16*I16</f>
+        <v>1198003.115284974</v>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="69">
+        <f>PRODUCT(C19:F19)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14">
+        <v>50000</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="69">
+        <f>PRODUCT(C20:F20)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14">
+        <v>25000</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="70">
+        <v>1</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="70">
+        <f>SUM(I19:I20)</f>
+        <v>75000</v>
+      </c>
+      <c r="J21" s="71">
+        <f>G21*I21</f>
+        <v>75000</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="34">
+        <f t="shared" ref="G23" si="0">PRODUCT(C23:F23)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="34">
+        <f>G23*I23</f>
+        <v>1000</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16">
+        <f>SUM(J11:J23)</f>
+        <v>1299997.4352331606</v>
+      </c>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="27" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="81">
+        <f>J25</f>
+        <v>1299997.4352331606</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="98">
+        <f>0.13*C27</f>
+        <v>168999.66658031088</v>
+      </c>
+      <c r="D28" s="98"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="99">
+        <f>SUM(C27:D28)</f>
+        <v>1468997.1018134714</v>
+      </c>
+      <c r="D29" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>